--- a/delete.xlsx
+++ b/delete.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25324"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CCDB4DE-3A30-49A8-9A7A-C28B84D76986}" xr6:coauthVersionLast="48" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46B5C36E-87C7-4F3B-A412-6FC645A13692}" xr6:coauthVersionLast="48" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>user name</t>
   </si>
@@ -51,12 +51,6 @@
   </si>
   <si>
     <t>hari</t>
-  </si>
-  <si>
-    <t>DemoCSR</t>
-  </si>
-  <si>
-    <t>nagaraj</t>
   </si>
 </sst>
 </file>
@@ -412,7 +406,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -449,18 +443,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
+      <c r="C3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
